--- a/VerveStacks_BGR_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_BGR_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{938E94EE-D26C-402F-B6EE-60C501F37468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D2F29D-6CFC-433D-8601-D9A4AA7DC304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4EAF63F1-F179-420E-8B3B-5C2190997E7A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1FD92584-F816-4C53-8F7A-339DD56539AB}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02493C7-1129-5714-6DA9-07FBF5F0FFAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F03694-2B59-922F-18B5-8DB53902B1EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7820988D-2E43-4FD5-8089-7BDADA568703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8A3C78-6285-42BB-88A6-360C6DCAEAE1}">
   <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_BGR_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35EA0CEA-6F0F-45FD-9385-0A32951B316F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2286C772-7C75-4C5E-942C-4F9476E12911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CB9A1537-E425-4084-A3C9-31FDB9849354}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{93853FE6-467F-481B-9853-2F0734408E5E}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1429,7 +1429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFDA856-EC46-47AD-B18E-CBE659F2397F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2107EE4D-AE85-4425-A45C-E68149D200D6}">
   <dimension ref="B3:L142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
